--- a/tableau/state_info.xlsx
+++ b/tableau/state_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/tableau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD22E12-3E15-C04E-803C-30281DFBA6C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EC23B4-A0BC-9049-9383-3DD7ECDC0AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{FAAD1E06-CFD9-6944-82C2-576030DD8CCD}"/>
   </bookViews>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="271">
   <si>
     <t>State</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -339,16 +336,534 @@
   </si>
   <si>
     <t>Unemployment Insurance data for Wisconsin is available on a weekly basis. Unemployment data is available at the state, county, and city levels.</t>
+  </si>
+  <si>
+    <t>Data Source Note</t>
+  </si>
+  <si>
+    <t>http://www2.labor.alabama.gov/LAUS/InitialClaimsTab.aspx</t>
+  </si>
+  <si>
+    <t>Alabama Department of Labor, Interactive Weekly Unemployment Insurance Claims</t>
+  </si>
+  <si>
+    <t>Alabama Department of Labor, Interactive Local Area Unemployment Statistics</t>
+  </si>
+  <si>
+    <t>http://www2.labor.alabama.gov/LAUS/LAUSTab.aspx</t>
+  </si>
+  <si>
+    <t>Alaska Department of Labor and Workforce Development, Alaska Not Seasonally Adjusted Labor Force Data</t>
+  </si>
+  <si>
+    <t>UI Data Source</t>
+  </si>
+  <si>
+    <t>UI URL</t>
+  </si>
+  <si>
+    <t>UR Data Source</t>
+  </si>
+  <si>
+    <t>UR URL</t>
+  </si>
+  <si>
+    <t>Arizona Commerce Authority, Monthly Unemployment Custom Data Search</t>
+  </si>
+  <si>
+    <t>Arizona Commerce Authority, Unemployment Insurance Statistics</t>
+  </si>
+  <si>
+    <t>http://www.discover.arkansas.gov/Data-Search-Tool/LAUS</t>
+  </si>
+  <si>
+    <t>Arkansas Division of Workforce Services, Employment and Unemployment Statistics - LAUS</t>
+  </si>
+  <si>
+    <t>https://www.edd.ca.gov/about_edd/Quick_Statistics_Information_by_County.htm</t>
+  </si>
+  <si>
+    <t>State of California Employment Development Department, Unemployment Insurance Information by County</t>
+  </si>
+  <si>
+    <t>https://www.labormarketinfo.edd.ca.gov/data/interactive-labor-market-data-tools.html</t>
+  </si>
+  <si>
+    <t>State of California Employment Development Department, Labor Force and Unemployment Interactive Map</t>
+  </si>
+  <si>
+    <t>https://www.colmigateway.com/gsipub/index.asp?docid=807</t>
+  </si>
+  <si>
+    <t>Colorado Department of Labor and Employment, Unemployment Insurance Statistics for Colorado</t>
+  </si>
+  <si>
+    <t>Colorado Department of Labor and Employment, Labor Force, Employment, and Unemployment for Colorado</t>
+  </si>
+  <si>
+    <t>https://www1.ctdol.state.ct.us/lmi/ces/default.asp</t>
+  </si>
+  <si>
+    <t>Connecticut Department of Labor, Current Employment Statistics</t>
+  </si>
+  <si>
+    <t>https://lmi.delawareworks.com/Content/Information/LAUS.php</t>
+  </si>
+  <si>
+    <t>State of Delaware, Local Area Unemployment Statistics</t>
+  </si>
+  <si>
+    <t>https://floridajobs.org/workforce-statistics/data-center/statistical-programs/local-area-unemployment-statistics</t>
+  </si>
+  <si>
+    <t>Florida Department of Economic Opportunity, Local Area Unemployment Statistics</t>
+  </si>
+  <si>
+    <t>https://explorer.gdol.ga.gov/</t>
+  </si>
+  <si>
+    <t>Georgia LaborMarket Explorer, Local Unemployment Rates</t>
+  </si>
+  <si>
+    <t>https://dol.georgia.gov/current-labor-force-data-and-graphs</t>
+  </si>
+  <si>
+    <t>Georgia Department of Labor, Current Labor Force Data and Graphs</t>
+  </si>
+  <si>
+    <t>https://labor.hawaii.gov/rs/files/2020/01/IC2020.pdf</t>
+  </si>
+  <si>
+    <t>Hawaii Department of Labor, Initial Claims</t>
+  </si>
+  <si>
+    <t>https://www.hirenethawaii.com/gsipub/index.asp?docid=723</t>
+  </si>
+  <si>
+    <t>Hawaii Hirenet, Labor Force and Unemployment Rates</t>
+  </si>
+  <si>
+    <t>https://lmi.idaho.gov/ui-weekly-claims</t>
+  </si>
+  <si>
+    <t>Idaho Department of Labor, UI Weekly Claims</t>
+  </si>
+  <si>
+    <t>https://lmi.idaho.gov/laus</t>
+  </si>
+  <si>
+    <t>Idaho Department of Labor, Labor Force Statistics</t>
+  </si>
+  <si>
+    <t>https://www2.illinois.gov/ides/lmi/Pages/Unemployment_Insurance_Program_Data.aspx</t>
+  </si>
+  <si>
+    <t>Illinois Department of Employment Security, Unemployment Insurance Program Data</t>
+  </si>
+  <si>
+    <t>Illinois Department of Employment Security, Year to Date Data</t>
+  </si>
+  <si>
+    <t>https://www2.illinois.gov/ides/LMI/Pages/Year_to_Date.aspx</t>
+  </si>
+  <si>
+    <t>Hoosiers by the Numbers, Unemployment Claims (County Level, Weekly)</t>
+  </si>
+  <si>
+    <t>https://data.iowa.gov/Economic-Statistics/Iowa-Unemployment-Insurance-Initial-Claims-by-Coun/xeyb-8kfg</t>
+  </si>
+  <si>
+    <t>Data.iowa.gov, Iowa Unemployment Insurance Claims Data by County (Weekly)</t>
+  </si>
+  <si>
+    <t>https://www.iowaworkforcedevelopment.gov/local-area-unemployment-statistics</t>
+  </si>
+  <si>
+    <t>Iowa Workforce Development, Local Area Unemployment Statistics</t>
+  </si>
+  <si>
+    <t>https://klic.dol.ks.gov/gsipub/index.asp?docid=756</t>
+  </si>
+  <si>
+    <t>Kansas Department of Labor, Previous uNemployment Insurance Weekly Review Publications</t>
+  </si>
+  <si>
+    <t>Kansas Department of Labor, Labor Force, Employment, and Unemployment for Kansas</t>
+  </si>
+  <si>
+    <t>https://kystats.ky.gov/KYLMI/UIClaimTables</t>
+  </si>
+  <si>
+    <t>Kentucky Center for Statistics, UI Performance Measures</t>
+  </si>
+  <si>
+    <t>https://kystats.ky.gov/KYLMI/Index/</t>
+  </si>
+  <si>
+    <t>Kentucky Center for Statistics, Labor Market Information Report Library</t>
+  </si>
+  <si>
+    <t>Lousiana Workforce Commission, Labor Force, Employment, and Unemployment for Louisiana</t>
+  </si>
+  <si>
+    <t>https://www.maine.gov/labor/cwri/laus1.html</t>
+  </si>
+  <si>
+    <t>Maine Center for Workforce Research and Information, Labor Force Statistics by Geography</t>
+  </si>
+  <si>
+    <t>https://www.dllr.state.md.us/employment/uicounty.shtml</t>
+  </si>
+  <si>
+    <t>Maryland Department of Labor, Unemployment Insurance Initial Claims by County</t>
+  </si>
+  <si>
+    <t>https://www.dllr.state.md.us/lmi/laus/lausmsa.shtml</t>
+  </si>
+  <si>
+    <t>Maryland Department of Labor, Metropolitan Statistical Area (MSA), Not Seasonally Adjusted - Local Area Unemployment Statistics (LAUS) - Workforce Information &amp; Performance</t>
+  </si>
+  <si>
+    <t>Department of Unemployment Assistance, Economic Research, Workforce Development Area Profile</t>
+  </si>
+  <si>
+    <t>https://public.tableau.com/profile/maeconomicresearch#!/vizhome/WorkforceDevelopmentAreaWDAProfile/WDAProfile</t>
+  </si>
+  <si>
+    <t>https://lmi.dua.eol.mass.gov/LMI/LaborForceAndUnemployment#</t>
+  </si>
+  <si>
+    <t>State of Massachusetts, Labor Force and Unemployment Data</t>
+  </si>
+  <si>
+    <t>https://www.upjohn.org/research-highlights/initial-claims-unemployment-insurance-level-remain-near-historical-highs</t>
+  </si>
+  <si>
+    <t>Upjohn Institute, Initial claims for unemployment insurance level off but remain near historical highs</t>
+  </si>
+  <si>
+    <t>https://milmi.org/DataSearch/LAUS</t>
+  </si>
+  <si>
+    <t>Michigan Department of Technology, Management, and Budget, Employment and Unemployment Statistics - LAUS</t>
+  </si>
+  <si>
+    <t>https://apps.deed.state.mn.us/lmi/ui/Results.aspx?area=R11000&amp;date=202001</t>
+  </si>
+  <si>
+    <t>Minnesota Employment and Economic Development, Unemployment Insurance Claimant Characteristics</t>
+  </si>
+  <si>
+    <t>Minnesota Employment and Economic Development, Minnesota Unemployment Statistics LAUS Data</t>
+  </si>
+  <si>
+    <t>https://apps.deed.state.mn.us/lmi/laus/Default.aspx</t>
+  </si>
+  <si>
+    <t>Mississippi Department of Employment Security, Mississippi Labor Market Data</t>
+  </si>
+  <si>
+    <t>https://mdes.ms.gov/media/23357/labormarketdata.pdf</t>
+  </si>
+  <si>
+    <t>https://mdes.ms.gov/information-center/labor-market-information/labor-market-publications/unemployment-rates/</t>
+  </si>
+  <si>
+    <t>Mississippi Department of Employment Security, Unemployment Rates</t>
+  </si>
+  <si>
+    <t>State of Missouri, Missouri Weekly Report of Initial Unemployment Claims</t>
+  </si>
+  <si>
+    <t>https://catalog.data.gov/dataset/missouri-weekly-report-of-initial-unemployment-claims-2c10b</t>
+  </si>
+  <si>
+    <t>Missouri Economic Research and Information Center, Missouri Local Unemployment Statistics</t>
+  </si>
+  <si>
+    <t>https://lmi.mt.gov/Home/DS-Results-LAUS</t>
+  </si>
+  <si>
+    <t>https://meric.mo.gov/data/economic/local-area-unemployment-statistics/laus</t>
+  </si>
+  <si>
+    <t>Montana Department of Labor and Industry, Local Area Unemployment Statistics</t>
+  </si>
+  <si>
+    <t>Nebraska Works, Unemployment Insurance Claims Data</t>
+  </si>
+  <si>
+    <t>https://neworks.nebraska.gov/gsipub/index.asp?docid=710</t>
+  </si>
+  <si>
+    <t>https://neworks.nebraska.gov/vosnet/analyzer/results.aspx</t>
+  </si>
+  <si>
+    <t>Nebraska Works, Labor Force, Employment, and Unemployment for Nebraska</t>
+  </si>
+  <si>
+    <t>http://nvlmi.mt.gov/Portals/197/UI%20Monthly%20Claims%20Press%20Release/Dashboards/UICountyTrends.html</t>
+  </si>
+  <si>
+    <t>http://nevadaworkforce.com/Home/DS-Results-LAUS</t>
+  </si>
+  <si>
+    <t>https://www.nhes.nh.gov/elmi/statistics/laus-data.htm</t>
+  </si>
+  <si>
+    <t>https://nj.gov/labor/lpa/employ/uirate/lfest_index.html</t>
+  </si>
+  <si>
+    <t>New Jersey Department of Labor and Workforce Development, Unemployment Insurance Claimant Characteristics</t>
+  </si>
+  <si>
+    <t>New Jersey Department of Labor and Workforce Development, Labor Force</t>
+  </si>
+  <si>
+    <t>New Mexico Department of Workforce Solutions, New Mexico Labor Market Review</t>
+  </si>
+  <si>
+    <t>https://www.jobs.state.nm.us/admin/gsipub/htmlarea/uploads/lmr_Apr_20.pdf</t>
+  </si>
+  <si>
+    <t>State of Nevada, Weekly Unemployment Insurance Trends by County</t>
+  </si>
+  <si>
+    <t>New Hampshire Department of Employment Security, Local Area Unemployment Statistics</t>
+  </si>
+  <si>
+    <t>Nevada Department of Employment Training and Rehabilitation, Local Area Unemployment Statistics</t>
+  </si>
+  <si>
+    <t>https://www.dws.state.nm.us/en-us/Researchers/Data/Labor-Force-Unemployment</t>
+  </si>
+  <si>
+    <t>New Mexico Department of Workforce Solutions, Local Area Unemployment Statistics</t>
+  </si>
+  <si>
+    <t>https://labor.ny.gov/stats/weekly-ui-claims-report.shtm</t>
+  </si>
+  <si>
+    <t>https://labor.ny.gov/stats/LSLAUS.shtm</t>
+  </si>
+  <si>
+    <t>https://d4.nccommerce.com/LausSelection.aspx</t>
+  </si>
+  <si>
+    <t>North Carolina Department of Commerce, Local Area Unemployment Statistics</t>
+  </si>
+  <si>
+    <t>New York Department of Labor, Labor Force and Unemployment Data</t>
+  </si>
+  <si>
+    <t>New York Department of Labor, Weekly UI Claims Report</t>
+  </si>
+  <si>
+    <t>https://www.ndlmi.com/gsipub/index.asp?docid=687</t>
+  </si>
+  <si>
+    <t>https://ohiolmi.com/home/UIclaims</t>
+  </si>
+  <si>
+    <t>Ohio Labor Market Information, Unemployment Claims and Benefits Statistics</t>
+  </si>
+  <si>
+    <t>https://ohiolmi.com/Home/DS_Results_LAUS</t>
+  </si>
+  <si>
+    <t>Ohio Labor Market Information, Local Area Unemployment Statistics</t>
+  </si>
+  <si>
+    <t>https://www.qualityinfo.org/covid-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of Oregon Employment Department, Weekly Initial Claims </t>
+  </si>
+  <si>
+    <t>North Dakota Labor Market Information, North Dakota Weekly Unemployment Initial Claims</t>
+  </si>
+  <si>
+    <t>North Dakota Labor Market Information, Labor Force, Employment, and Unemployment for Norht Dakota</t>
+  </si>
+  <si>
+    <t>State of Oregon Employment Department, Local Area Unemployment Statistics</t>
+  </si>
+  <si>
+    <t>https://www.qualityinfo.org/ed-dwnl/?at=1&amp;t1=~unemp~n~03~2019~2020~</t>
+  </si>
+  <si>
+    <t>https://www.workstats.dli.pa.gov/Products/UCActivity/Pages/default.aspx</t>
+  </si>
+  <si>
+    <t>Pennsylvania Center for Workforce Information and Analysis, Pennsylvania Unemployment Compensation Activity</t>
+  </si>
+  <si>
+    <t>Pennsylvania Department of Labor and Industry, Labor Force, Employment, and Unemployment for Pennsylvania</t>
+  </si>
+  <si>
+    <t>Rhode Island Department of Labor and Training, Unemployment Insurance</t>
+  </si>
+  <si>
+    <t>https://dlt.ri.gov/lmi/datacenter/uitdi.php</t>
+  </si>
+  <si>
+    <t>https://dlt.ri.gov/lmi/datacenter/laus.php</t>
+  </si>
+  <si>
+    <t>Rhode Island Department of Labor and Training, Local Area Unemployment Statistics</t>
+  </si>
+  <si>
+    <t>https://dew.sc.gov/covid-hub</t>
+  </si>
+  <si>
+    <t>SC Works, Labor Force, Employment, and Unemployment for South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota Department of Labor and Regulation, Labor Force, Employment, and Unemployment for South Carolina</t>
+  </si>
+  <si>
+    <t>https://www.tn.gov/workforce/covid-19/news.weekly-unemployment-claims-data.html</t>
+  </si>
+  <si>
+    <t>Tennessee Department of Labor and Workforce Development, Tennessee New Unemployment Claims Filed</t>
+  </si>
+  <si>
+    <t>Tennessee Government, Labor Force, Employment, and Unemployemnt for Tennessee</t>
+  </si>
+  <si>
+    <t>https://texasmapsonline.com/portal/apps/MapSeries/index.html?appid=e3e490c4196a45868610f65b72e9f303</t>
+  </si>
+  <si>
+    <t>Texas Workforce Commission UI Claimant Dashboard</t>
+  </si>
+  <si>
+    <t>https://texaslmi.com/LMIbyCategory/LAUS</t>
+  </si>
+  <si>
+    <t>Texas Labor Market Information, Local Area Unemployment Statistics</t>
+  </si>
+  <si>
+    <t>https://jobs.utah.gov/wi/data/misstats/lmi/</t>
+  </si>
+  <si>
+    <t>Utah Department of Workforce Services, Workforce Statistics - Labor Market Information</t>
+  </si>
+  <si>
+    <t>https://jobs.utah.gov/wi/update/une/</t>
+  </si>
+  <si>
+    <t>Utah Department of Workforce Services, Employment Update - Unemployment Rates</t>
+  </si>
+  <si>
+    <t>http://www.vtlmi.info/detftp.htm#laus</t>
+  </si>
+  <si>
+    <t>Vermont Department of Labor - Labor Force / Unemployment</t>
+  </si>
+  <si>
+    <t>Virginia Employment Commission, News, Press Releases, and reports</t>
+  </si>
+  <si>
+    <t>https://www.vec.virginia.gov/vec-news</t>
+  </si>
+  <si>
+    <t>Virginia Employment Commission, Virginia's Career and Workforce-Labor Market Information</t>
+  </si>
+  <si>
+    <t>https://virginiaworks.com/local-area-unemployment-statistics-laus</t>
+  </si>
+  <si>
+    <t>https://live.laborstats.alaska.gov/labforce/labdataall.cfm</t>
+  </si>
+  <si>
+    <t>https://www.azcommerce.com/oeo/labor-market/unemployment</t>
+  </si>
+  <si>
+    <t>https://www.colmigateway.com/vosnet/</t>
+  </si>
+  <si>
+    <t>http://www.hoosierdata.in.gov/dpage.asp?id=58</t>
+  </si>
+  <si>
+    <t>https://klic.dol.ks.gov/vosnet/</t>
+  </si>
+  <si>
+    <t>https://www.louisianaworks.net/hire/vosnet/</t>
+  </si>
+  <si>
+    <t>https://www.ndlmi.com/vosnet/</t>
+  </si>
+  <si>
+    <t>https://paworkstats.geosolinc.com/vosnet/</t>
+  </si>
+  <si>
+    <t>https://jobs.scworks.org/vosnet</t>
+  </si>
+  <si>
+    <t>https://www.southdakotaworks.org/vosnet/</t>
+  </si>
+  <si>
+    <t>https://www.jobs4tn.gov/vosnet/</t>
+  </si>
+  <si>
+    <t>https://esd.wa.gov/labormarketinfo/unemployment-insurance-data</t>
+  </si>
+  <si>
+    <t>Washington State Employment Security Department, Unemployment insurance and COVID specific data</t>
+  </si>
+  <si>
+    <t>https://esd.wa.gov/labormarketinfo/labor-force</t>
+  </si>
+  <si>
+    <t>Washington State Employment Security Department, Labor Force</t>
+  </si>
+  <si>
+    <t>http://lmi.workforcewv.org/table2.html</t>
+  </si>
+  <si>
+    <t>WorkForce West virginia, Monthly Report on the Civilian Labor Force, Employment, and Unemployment</t>
+  </si>
+  <si>
+    <t>ttps://jobcenterofwisconsin.com/wisconomy/query</t>
+  </si>
+  <si>
+    <t>Wisconsin Department of Workforce Development, Wisconsin LMI Data Access</t>
+  </si>
+  <si>
+    <t>https://dwd.wisconsin.gov/uistats/</t>
+  </si>
+  <si>
+    <t>Wisconsin Department of Workforce Development, Wisconsin Unemployment Insurance Initial and Weekly Claims Filed</t>
+  </si>
+  <si>
+    <t>https://doe.state.wy.us/lmi/UI/</t>
+  </si>
+  <si>
+    <t>Wyoming Department of Workforce Services, Labor Market Information</t>
+  </si>
+  <si>
+    <t>https://doe.state.wy.us/lmi/news.htm</t>
+  </si>
+  <si>
+    <t>Wyoming Department of Workforce Services, Wyoming Unemployment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -371,10 +886,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -382,8 +898,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -696,427 +1214,971 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9EF56E-AA8C-6C43-9629-B47516959724}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="93.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="E8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="E19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="E20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="C21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="C22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="C23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="C24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="C25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="C26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="E27" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="C28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="C29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="E30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="C31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="C32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="C33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="E34" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="C35" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" t="s">
+        <v>216</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="C36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="C38" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="C39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="C40" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" t="s">
+        <v>225</v>
+      </c>
+      <c r="F40" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="C41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="E42" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="C43" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" t="s">
+        <v>231</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="C44" t="s">
+        <v>233</v>
+      </c>
+      <c r="D44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" t="s">
+        <v>235</v>
+      </c>
+      <c r="F44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="C45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" t="s">
+        <v>236</v>
+      </c>
+      <c r="E45" t="s">
+        <v>239</v>
+      </c>
+      <c r="F45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="E46" t="s">
+        <v>241</v>
+      </c>
+      <c r="F46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="C47" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" t="s">
+        <v>243</v>
+      </c>
+      <c r="E47" t="s">
+        <v>244</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="C48" t="s">
+        <v>258</v>
+      </c>
+      <c r="D48" t="s">
+        <v>257</v>
+      </c>
+      <c r="E48" t="s">
+        <v>260</v>
+      </c>
+      <c r="F48" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="E49" t="s">
+        <v>262</v>
+      </c>
+      <c r="F49" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" t="s">
+        <v>265</v>
+      </c>
+      <c r="E50" t="s">
+        <v>264</v>
+      </c>
+      <c r="F50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>100</v>
+      <c r="C51" t="s">
+        <v>268</v>
+      </c>
+      <c r="D51" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" t="s">
+        <v>270</v>
+      </c>
+      <c r="F51" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{F12E14E3-3DB8-B341-BF1D-778CE136035C}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{D431EA54-C910-0D44-89B8-A589DDFDA49D}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{F1F31004-B230-F14E-B394-57C18BCA2AA6}"/>
+    <hyperlink ref="F12" r:id="rId4" xr:uid="{7BF80A58-5DA8-364B-B7AF-D69790D77617}"/>
+    <hyperlink ref="F24" r:id="rId5" xr:uid="{E6874AAE-A62A-4244-81D4-275C491EF38B}"/>
+    <hyperlink ref="D31" r:id="rId6" xr:uid="{3E796621-DCE4-5E40-93DA-9BBB780B2F25}"/>
+    <hyperlink ref="F47" r:id="rId7" xr:uid="{B0164E1F-0AEC-B44E-863B-C2B0A26704A9}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{AB8B8DB3-46F4-3548-B5B8-152E3B55C6BB}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{CEA0CE65-564D-A84C-819F-B80B74F48C4B}"/>
+    <hyperlink ref="F7" r:id="rId10" xr:uid="{7AE92B90-F554-914D-BD04-82C629DBBA9A}"/>
+    <hyperlink ref="D14" r:id="rId11" xr:uid="{909ACBFA-27D2-C54A-9A19-7B4AD507A345}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{7BD16280-EE04-D84B-85DA-C4144AB7B5C5}"/>
+    <hyperlink ref="F17" r:id="rId13" xr:uid="{5EA871D6-85BA-E247-8CCF-9C0E3F04CD78}"/>
+    <hyperlink ref="F19" r:id="rId14" xr:uid="{13B37DFB-F421-F54B-866C-C64E51E576FF}"/>
+    <hyperlink ref="D22" r:id="rId15" location="!/vizhome/WorkforceDevelopmentAreaWDAProfile/WDAProfile" xr:uid="{424EAC4B-0DC5-844B-99DF-C4517C53E9D7}"/>
+    <hyperlink ref="D23" r:id="rId16" xr:uid="{5C3DA8A5-24AE-954A-A955-623114252476}"/>
+    <hyperlink ref="D24" r:id="rId17" xr:uid="{3D071CE2-7D89-2342-878A-991E8909BC45}"/>
+    <hyperlink ref="D29" r:id="rId18" xr:uid="{00DC1C3F-E98A-0344-99BA-92A775EC9AA1}"/>
+    <hyperlink ref="F35" r:id="rId19" xr:uid="{E8845C28-DCDB-5A48-875A-E4C8FE1A2E67}"/>
+    <hyperlink ref="F39" r:id="rId20" xr:uid="{DBD62756-8D96-0641-8C2F-3832F0E94A18}"/>
+    <hyperlink ref="D39" r:id="rId21" xr:uid="{30E97107-CBC0-7446-81D9-0004E9BECB40}"/>
+    <hyperlink ref="F41" r:id="rId22" xr:uid="{5D10423C-2579-804F-9C9C-0B76940BE7A7}"/>
+    <hyperlink ref="F42" r:id="rId23" xr:uid="{65DB9901-F966-0844-A911-CF11F165EC77}"/>
+    <hyperlink ref="F43" r:id="rId24" xr:uid="{59B83F34-8215-944B-872E-08F1229E77D6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tableau/state_info.xlsx
+++ b/tableau/state_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/tableau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EC23B4-A0BC-9049-9383-3DD7ECDC0AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3297C896-5B14-1F42-81AB-25571406546F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{FAAD1E06-CFD9-6944-82C2-576030DD8CCD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="273">
   <si>
     <t>State</t>
   </si>
@@ -846,6 +846,12 @@
   </si>
   <si>
     <t>Wyoming Department of Workforce Services, Wyoming Unemployment</t>
+  </si>
+  <si>
+    <t>https://www1.ctdol.state.ct.us/lmi/claimsdata.asp</t>
+  </si>
+  <si>
+    <t>Connecticut Department of Labor, Statewide Claims Profile</t>
   </si>
 </sst>
 </file>
@@ -1216,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9EF56E-AA8C-6C43-9629-B47516959724}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1362,6 +1368,12 @@
       </c>
       <c r="B8" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="E8" t="s">
         <v>123</v>
@@ -2178,6 +2190,7 @@
     <hyperlink ref="F41" r:id="rId22" xr:uid="{5D10423C-2579-804F-9C9C-0B76940BE7A7}"/>
     <hyperlink ref="F42" r:id="rId23" xr:uid="{65DB9901-F966-0844-A911-CF11F165EC77}"/>
     <hyperlink ref="F43" r:id="rId24" xr:uid="{59B83F34-8215-944B-872E-08F1229E77D6}"/>
+    <hyperlink ref="D8" r:id="rId25" xr:uid="{CC9E69E5-D89E-7348-94ED-77D234229B97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tableau/state_info.xlsx
+++ b/tableau/state_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/tableau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3297C896-5B14-1F42-81AB-25571406546F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D60BEFF-A607-6C4F-88FF-380344ED3278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{FAAD1E06-CFD9-6944-82C2-576030DD8CCD}"/>
   </bookViews>
@@ -230,9 +230,6 @@
     <t>Arkansas does not report granular Unemployment Insurance data. Unemployment data is available at the state, county, and city levels.</t>
   </si>
   <si>
-    <t>Connecticut does not report granular Unemployment Insurance data. Unemployment data is available at the state, county, and city levels.</t>
-  </si>
-  <si>
     <t>Delaware does not report granular Unemployment Insurance data. Unemployment data is available at the state, county, and city levels.</t>
   </si>
   <si>
@@ -852,6 +849,9 @@
   </si>
   <si>
     <t>Connecticut Department of Labor, Statewide Claims Profile</t>
+  </si>
+  <si>
+    <t>Unemployment Insurance data for Connecticut is available on a weekly basis. Unemployment data is available at the state, county, and city levels.</t>
   </si>
 </sst>
 </file>
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9EF56E-AA8C-6C43-9629-B47516959724}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1239,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>109</v>
-      </c>
-      <c r="F1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1262,16 +1262,16 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
         <v>103</v>
       </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>104</v>
-      </c>
-      <c r="F2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1282,10 +1282,10 @@
         <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1296,16 +1296,16 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1316,10 +1316,10 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1330,16 +1330,16 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
         <v>116</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1350,16 +1350,16 @@
         <v>54</v>
       </c>
       <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
         <v>120</v>
       </c>
-      <c r="D7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" t="s">
-        <v>121</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1367,19 +1367,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1387,13 +1387,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1401,13 +1401,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1418,16 +1418,16 @@
         <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1438,16 +1438,16 @@
         <v>56</v>
       </c>
       <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1458,16 +1458,16 @@
         <v>58</v>
       </c>
       <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" t="s">
         <v>137</v>
-      </c>
-      <c r="D13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1478,16 +1478,16 @@
         <v>59</v>
       </c>
       <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>142</v>
-      </c>
-      <c r="F14" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1498,10 +1498,10 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1512,16 +1512,16 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
         <v>146</v>
-      </c>
-      <c r="D16" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1532,16 +1532,16 @@
         <v>61</v>
       </c>
       <c r="C17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" t="s">
         <v>150</v>
       </c>
-      <c r="D17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" t="s">
-        <v>151</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1552,16 +1552,16 @@
         <v>62</v>
       </c>
       <c r="C18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" t="s">
         <v>153</v>
-      </c>
-      <c r="D18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1569,13 +1569,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1583,13 +1583,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1597,19 +1597,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" t="s">
         <v>160</v>
-      </c>
-      <c r="D21" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F21" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1617,19 +1617,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" t="s">
         <v>164</v>
-      </c>
-      <c r="E22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F22" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1637,19 +1637,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" t="s">
         <v>168</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1657,19 +1657,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1677,19 +1677,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" t="s">
         <v>175</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" t="s">
         <v>176</v>
-      </c>
-      <c r="E25" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1697,19 +1697,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" t="s">
         <v>179</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>180</v>
       </c>
-      <c r="E26" t="s">
-        <v>181</v>
-      </c>
       <c r="F26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1717,13 +1717,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1731,19 +1731,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" t="s">
         <v>185</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" t="s">
         <v>186</v>
-      </c>
-      <c r="E28" t="s">
-        <v>188</v>
-      </c>
-      <c r="F28" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1751,19 +1751,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" t="s">
         <v>189</v>
-      </c>
-      <c r="E29" t="s">
-        <v>199</v>
-      </c>
-      <c r="F29" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1771,13 +1771,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1785,19 +1785,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" t="s">
         <v>193</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E31" t="s">
-        <v>194</v>
-      </c>
       <c r="F31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1805,19 +1805,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" t="s">
         <v>195</v>
       </c>
-      <c r="D32" t="s">
-        <v>196</v>
-      </c>
       <c r="E32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1825,19 +1825,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" t="s">
+        <v>205</v>
+      </c>
+      <c r="F33" t="s">
         <v>202</v>
-      </c>
-      <c r="E33" t="s">
-        <v>206</v>
-      </c>
-      <c r="F33" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1845,13 +1845,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1859,19 +1859,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" t="s">
         <v>215</v>
       </c>
-      <c r="D35" t="s">
-        <v>208</v>
-      </c>
-      <c r="E35" t="s">
-        <v>216</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1879,19 +1879,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" t="s">
         <v>210</v>
-      </c>
-      <c r="D36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" t="s">
-        <v>212</v>
-      </c>
-      <c r="F36" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1899,7 +1899,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1907,19 +1907,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E38" t="s">
+        <v>216</v>
+      </c>
+      <c r="F38" t="s">
         <v>217</v>
-      </c>
-      <c r="F38" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1927,19 +1927,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" t="s">
         <v>220</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E39" t="s">
-        <v>221</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1947,19 +1947,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" t="s">
         <v>222</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>224</v>
+      </c>
+      <c r="F40" t="s">
         <v>223</v>
-      </c>
-      <c r="E40" t="s">
-        <v>225</v>
-      </c>
-      <c r="F40" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1967,19 +1967,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41" t="s">
         <v>226</v>
       </c>
-      <c r="E41" t="s">
-        <v>227</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1987,13 +1987,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2001,19 +2001,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
+        <v>229</v>
+      </c>
+      <c r="D43" t="s">
+        <v>228</v>
+      </c>
+      <c r="E43" t="s">
         <v>230</v>
       </c>
-      <c r="D43" t="s">
-        <v>229</v>
-      </c>
-      <c r="E43" t="s">
-        <v>231</v>
-      </c>
       <c r="F43" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2021,19 +2021,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" t="s">
+        <v>234</v>
+      </c>
+      <c r="F44" t="s">
         <v>233</v>
-      </c>
-      <c r="D44" t="s">
-        <v>232</v>
-      </c>
-      <c r="E44" t="s">
-        <v>235</v>
-      </c>
-      <c r="F44" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2041,19 +2041,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F45" t="s">
         <v>237</v>
-      </c>
-      <c r="D45" t="s">
-        <v>236</v>
-      </c>
-      <c r="E45" t="s">
-        <v>239</v>
-      </c>
-      <c r="F45" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2061,13 +2061,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2075,19 +2075,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" t="s">
         <v>242</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>243</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2095,19 +2095,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
+        <v>257</v>
+      </c>
+      <c r="D48" t="s">
+        <v>256</v>
+      </c>
+      <c r="E48" t="s">
+        <v>259</v>
+      </c>
+      <c r="F48" t="s">
         <v>258</v>
-      </c>
-      <c r="D48" t="s">
-        <v>257</v>
-      </c>
-      <c r="E48" t="s">
-        <v>260</v>
-      </c>
-      <c r="F48" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2115,13 +2115,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2129,19 +2129,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2149,19 +2149,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
+        <v>267</v>
+      </c>
+      <c r="D51" t="s">
+        <v>266</v>
+      </c>
+      <c r="E51" t="s">
+        <v>269</v>
+      </c>
+      <c r="F51" t="s">
         <v>268</v>
-      </c>
-      <c r="D51" t="s">
-        <v>267</v>
-      </c>
-      <c r="E51" t="s">
-        <v>270</v>
-      </c>
-      <c r="F51" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/tableau/state_info.xlsx
+++ b/tableau/state_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/tableau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D60BEFF-A607-6C4F-88FF-380344ED3278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90BEC51-0593-984E-A0D3-9AAF9F53F7DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{FAAD1E06-CFD9-6944-82C2-576030DD8CCD}"/>
   </bookViews>
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9EF56E-AA8C-6C43-9629-B47516959724}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tableau/state_info.xlsx
+++ b/tableau/state_info.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/tableau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90BEC51-0593-984E-A0D3-9AAF9F53F7DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0814DCB9-D9DD-D347-8C7A-E8A3F56239EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{FAAD1E06-CFD9-6944-82C2-576030DD8CCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="276">
   <si>
     <t>State</t>
   </si>
@@ -524,9 +524,6 @@
     <t>Department of Unemployment Assistance, Economic Research, Workforce Development Area Profile</t>
   </si>
   <si>
-    <t>https://public.tableau.com/profile/maeconomicresearch#!/vizhome/WorkforceDevelopmentAreaWDAProfile/WDAProfile</t>
-  </si>
-  <si>
     <t>https://lmi.dua.eol.mass.gov/LMI/LaborForceAndUnemployment#</t>
   </si>
   <si>
@@ -852,6 +849,18 @@
   </si>
   <si>
     <t>Unemployment Insurance data for Connecticut is available on a weekly basis. Unemployment data is available at the state, county, and city levels.</t>
+  </si>
+  <si>
+    <t>https://public.tableau.com/profile/louisiana.workforce.commission.lmi#!/vizhome/LWCUIDashboard/DashboardMain</t>
+  </si>
+  <si>
+    <t>Louisiana Workforce Commission, UI Claims by Parish</t>
+  </si>
+  <si>
+    <t>https://public.tableau.com/profile/maeconomicresearch#!/vizhome/InitialClaimsbyCounty_15943981899640/GenderRaceEthnicitybyCounty</t>
+  </si>
+  <si>
+    <t>Department of Unemployment Assistance, Economic Research, Initial Claims by County</t>
   </si>
 </sst>
 </file>
@@ -1222,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9EF56E-AA8C-6C43-9629-B47516959724}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1285,7 +1294,7 @@
         <v>105</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1299,13 +1308,13 @@
         <v>111</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
         <v>110</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1359,7 +1368,7 @@
         <v>120</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1367,13 +1376,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E8" t="s">
         <v>122</v>
@@ -1501,7 +1510,7 @@
         <v>143</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1541,7 +1550,7 @@
         <v>150</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1571,11 +1580,17 @@
       <c r="B19" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="C19" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="E19" t="s">
         <v>155</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1620,16 +1635,16 @@
         <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>275</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" t="s">
         <v>163</v>
-      </c>
-      <c r="E22" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1640,16 +1655,16 @@
         <v>71</v>
       </c>
       <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" t="s">
         <v>167</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1660,16 +1675,16 @@
         <v>72</v>
       </c>
       <c r="C24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1680,16 +1695,16 @@
         <v>73</v>
       </c>
       <c r="C25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" t="s">
         <v>174</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" t="s">
         <v>175</v>
-      </c>
-      <c r="E25" t="s">
-        <v>177</v>
-      </c>
-      <c r="F25" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1700,16 +1715,16 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" t="s">
         <v>178</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>179</v>
       </c>
-      <c r="E26" t="s">
-        <v>180</v>
-      </c>
       <c r="F26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1720,10 +1735,10 @@
         <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1734,16 +1749,16 @@
         <v>76</v>
       </c>
       <c r="C28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" t="s">
         <v>184</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" t="s">
         <v>185</v>
-      </c>
-      <c r="E28" t="s">
-        <v>187</v>
-      </c>
-      <c r="F28" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1754,16 +1769,16 @@
         <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" t="s">
         <v>188</v>
-      </c>
-      <c r="E29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F29" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1774,10 +1789,10 @@
         <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1788,16 +1803,16 @@
         <v>79</v>
       </c>
       <c r="C31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" t="s">
         <v>192</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" t="s">
-        <v>193</v>
-      </c>
       <c r="F31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1808,16 +1823,16 @@
         <v>80</v>
       </c>
       <c r="C32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" t="s">
         <v>194</v>
       </c>
-      <c r="D32" t="s">
-        <v>195</v>
-      </c>
       <c r="E32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1828,16 +1843,16 @@
         <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" t="s">
         <v>201</v>
-      </c>
-      <c r="E33" t="s">
-        <v>205</v>
-      </c>
-      <c r="F33" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1848,10 +1863,10 @@
         <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1862,16 +1877,16 @@
         <v>83</v>
       </c>
       <c r="C35" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35" t="s">
         <v>214</v>
       </c>
-      <c r="D35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E35" t="s">
-        <v>215</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1882,16 +1897,16 @@
         <v>84</v>
       </c>
       <c r="C36" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" t="s">
         <v>209</v>
-      </c>
-      <c r="D36" t="s">
-        <v>208</v>
-      </c>
-      <c r="E36" t="s">
-        <v>211</v>
-      </c>
-      <c r="F36" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1910,16 +1925,16 @@
         <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E38" t="s">
+        <v>215</v>
+      </c>
+      <c r="F38" t="s">
         <v>216</v>
-      </c>
-      <c r="F38" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1930,16 +1945,16 @@
         <v>87</v>
       </c>
       <c r="C39" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39" t="s">
         <v>219</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E39" t="s">
-        <v>220</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1950,16 +1965,16 @@
         <v>88</v>
       </c>
       <c r="C40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" t="s">
         <v>221</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" t="s">
         <v>222</v>
-      </c>
-      <c r="E40" t="s">
-        <v>224</v>
-      </c>
-      <c r="F40" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1973,13 +1988,13 @@
         <v>162</v>
       </c>
       <c r="D41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" t="s">
         <v>225</v>
       </c>
-      <c r="E41" t="s">
-        <v>226</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1990,10 +2005,10 @@
         <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2004,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="C43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43" t="s">
         <v>229</v>
       </c>
-      <c r="D43" t="s">
-        <v>228</v>
-      </c>
-      <c r="E43" t="s">
-        <v>230</v>
-      </c>
       <c r="F43" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2024,16 +2039,16 @@
         <v>92</v>
       </c>
       <c r="C44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" t="s">
+        <v>233</v>
+      </c>
+      <c r="F44" t="s">
         <v>232</v>
-      </c>
-      <c r="D44" t="s">
-        <v>231</v>
-      </c>
-      <c r="E44" t="s">
-        <v>234</v>
-      </c>
-      <c r="F44" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2044,16 +2059,16 @@
         <v>93</v>
       </c>
       <c r="C45" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F45" t="s">
         <v>236</v>
-      </c>
-      <c r="D45" t="s">
-        <v>235</v>
-      </c>
-      <c r="E45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F45" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2064,10 +2079,10 @@
         <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2078,16 +2093,16 @@
         <v>95</v>
       </c>
       <c r="C47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" t="s">
         <v>241</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>242</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2098,16 +2113,16 @@
         <v>96</v>
       </c>
       <c r="C48" t="s">
+        <v>256</v>
+      </c>
+      <c r="D48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" t="s">
+        <v>258</v>
+      </c>
+      <c r="F48" t="s">
         <v>257</v>
-      </c>
-      <c r="D48" t="s">
-        <v>256</v>
-      </c>
-      <c r="E48" t="s">
-        <v>259</v>
-      </c>
-      <c r="F48" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2118,10 +2133,10 @@
         <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F49" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2132,16 +2147,16 @@
         <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2152,16 +2167,16 @@
         <v>98</v>
       </c>
       <c r="C51" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" t="s">
+        <v>265</v>
+      </c>
+      <c r="E51" t="s">
+        <v>268</v>
+      </c>
+      <c r="F51" t="s">
         <v>267</v>
-      </c>
-      <c r="D51" t="s">
-        <v>266</v>
-      </c>
-      <c r="E51" t="s">
-        <v>269</v>
-      </c>
-      <c r="F51" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2180,17 +2195,18 @@
     <hyperlink ref="D15" r:id="rId12" xr:uid="{7BD16280-EE04-D84B-85DA-C4144AB7B5C5}"/>
     <hyperlink ref="F17" r:id="rId13" xr:uid="{5EA871D6-85BA-E247-8CCF-9C0E3F04CD78}"/>
     <hyperlink ref="F19" r:id="rId14" xr:uid="{13B37DFB-F421-F54B-866C-C64E51E576FF}"/>
-    <hyperlink ref="D22" r:id="rId15" location="!/vizhome/WorkforceDevelopmentAreaWDAProfile/WDAProfile" xr:uid="{424EAC4B-0DC5-844B-99DF-C4517C53E9D7}"/>
-    <hyperlink ref="D23" r:id="rId16" xr:uid="{5C3DA8A5-24AE-954A-A955-623114252476}"/>
-    <hyperlink ref="D24" r:id="rId17" xr:uid="{3D071CE2-7D89-2342-878A-991E8909BC45}"/>
-    <hyperlink ref="D29" r:id="rId18" xr:uid="{00DC1C3F-E98A-0344-99BA-92A775EC9AA1}"/>
-    <hyperlink ref="F35" r:id="rId19" xr:uid="{E8845C28-DCDB-5A48-875A-E4C8FE1A2E67}"/>
-    <hyperlink ref="F39" r:id="rId20" xr:uid="{DBD62756-8D96-0641-8C2F-3832F0E94A18}"/>
-    <hyperlink ref="D39" r:id="rId21" xr:uid="{30E97107-CBC0-7446-81D9-0004E9BECB40}"/>
-    <hyperlink ref="F41" r:id="rId22" xr:uid="{5D10423C-2579-804F-9C9C-0B76940BE7A7}"/>
-    <hyperlink ref="F42" r:id="rId23" xr:uid="{65DB9901-F966-0844-A911-CF11F165EC77}"/>
-    <hyperlink ref="F43" r:id="rId24" xr:uid="{59B83F34-8215-944B-872E-08F1229E77D6}"/>
-    <hyperlink ref="D8" r:id="rId25" xr:uid="{CC9E69E5-D89E-7348-94ED-77D234229B97}"/>
+    <hyperlink ref="D23" r:id="rId15" xr:uid="{5C3DA8A5-24AE-954A-A955-623114252476}"/>
+    <hyperlink ref="D24" r:id="rId16" xr:uid="{3D071CE2-7D89-2342-878A-991E8909BC45}"/>
+    <hyperlink ref="D29" r:id="rId17" xr:uid="{00DC1C3F-E98A-0344-99BA-92A775EC9AA1}"/>
+    <hyperlink ref="F35" r:id="rId18" xr:uid="{E8845C28-DCDB-5A48-875A-E4C8FE1A2E67}"/>
+    <hyperlink ref="F39" r:id="rId19" xr:uid="{DBD62756-8D96-0641-8C2F-3832F0E94A18}"/>
+    <hyperlink ref="D39" r:id="rId20" xr:uid="{30E97107-CBC0-7446-81D9-0004E9BECB40}"/>
+    <hyperlink ref="F41" r:id="rId21" xr:uid="{5D10423C-2579-804F-9C9C-0B76940BE7A7}"/>
+    <hyperlink ref="F42" r:id="rId22" xr:uid="{65DB9901-F966-0844-A911-CF11F165EC77}"/>
+    <hyperlink ref="F43" r:id="rId23" xr:uid="{59B83F34-8215-944B-872E-08F1229E77D6}"/>
+    <hyperlink ref="D8" r:id="rId24" xr:uid="{CC9E69E5-D89E-7348-94ED-77D234229B97}"/>
+    <hyperlink ref="D19" r:id="rId25" location="!/vizhome/LWCUIDashboard/DashboardMain" display="https://public.tableau.com/profile/louisiana.workforce.commission.lmi - !/vizhome/LWCUIDashboard/DashboardMain" xr:uid="{8A7AC5E3-4C80-AC4B-BE68-2C22D0A65995}"/>
+    <hyperlink ref="D22" r:id="rId26" location="!/vizhome/InitialClaimsbyCounty_15943981899640/GenderRaceEthnicitybyCounty" display="https://public.tableau.com/profile/maeconomicresearch - !/vizhome/InitialClaimsbyCounty_15943981899640/GenderRaceEthnicitybyCounty" xr:uid="{4E0D811B-0710-DF44-A29A-376C02BA8F74}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tableau/state_info.xlsx
+++ b/tableau/state_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/tableau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0814DCB9-D9DD-D347-8C7A-E8A3F56239EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205D9E43-7FDA-5047-AC79-415751B0FF63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{FAAD1E06-CFD9-6944-82C2-576030DD8CCD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="277">
   <si>
     <t>State</t>
   </si>
@@ -272,9 +272,6 @@
     <t>New Hampshire does not report granular Unemployment Insurance data. Unemployment data is available at the state, county, and city levels.</t>
   </si>
   <si>
-    <t>New Jersey does not report granular Unemployment Insurance data. Unemployment data is available at the state, county, and city levels.</t>
-  </si>
-  <si>
     <t>New Mexico has reported county-level Unemployment Insurance data for April. Unemployment data is available at the state and county levels.</t>
   </si>
   <si>
@@ -861,6 +858,12 @@
   </si>
   <si>
     <t>Department of Unemployment Assistance, Economic Research, Initial Claims by County</t>
+  </si>
+  <si>
+    <t>Unemployment Insurance data for New Jersey is available on a weekly basis. Unemployment data is available at the state, county, and city levels.</t>
+  </si>
+  <si>
+    <t>https://oesc.ok.gov/labor-market-local-area-reports</t>
   </si>
 </sst>
 </file>
@@ -1231,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9EF56E-AA8C-6C43-9629-B47516959724}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1248,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>108</v>
-      </c>
-      <c r="F1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1271,16 +1274,16 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
         <v>102</v>
       </c>
-      <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>103</v>
-      </c>
-      <c r="F2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1291,10 +1294,10 @@
         <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1305,16 +1308,16 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1325,10 +1328,10 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1339,16 +1342,16 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
         <v>115</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1359,16 +1362,16 @@
         <v>54</v>
       </c>
       <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
         <v>119</v>
       </c>
-      <c r="D7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" t="s">
-        <v>120</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1376,19 +1379,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1399,10 +1402,10 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1413,10 +1416,10 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1427,16 +1430,16 @@
         <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1447,16 +1450,16 @@
         <v>56</v>
       </c>
       <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="D12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1467,16 +1470,16 @@
         <v>58</v>
       </c>
       <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" t="s">
         <v>136</v>
-      </c>
-      <c r="D13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1487,16 +1490,16 @@
         <v>59</v>
       </c>
       <c r="C14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>141</v>
-      </c>
-      <c r="F14" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1507,10 +1510,10 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1521,16 +1524,16 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" t="s">
         <v>145</v>
-      </c>
-      <c r="D16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1541,16 +1544,16 @@
         <v>61</v>
       </c>
       <c r="C17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" t="s">
-        <v>150</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1561,16 +1564,16 @@
         <v>62</v>
       </c>
       <c r="C18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" t="s">
         <v>152</v>
-      </c>
-      <c r="D18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1581,16 +1584,16 @@
         <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1601,10 +1604,10 @@
         <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1615,16 +1618,16 @@
         <v>69</v>
       </c>
       <c r="C21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" t="s">
         <v>159</v>
-      </c>
-      <c r="D21" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1635,16 +1638,16 @@
         <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1655,16 +1658,16 @@
         <v>71</v>
       </c>
       <c r="C23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" t="s">
         <v>166</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1675,16 +1678,16 @@
         <v>72</v>
       </c>
       <c r="C24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" t="s">
         <v>170</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1695,16 +1698,16 @@
         <v>73</v>
       </c>
       <c r="C25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" t="s">
         <v>173</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" t="s">
         <v>174</v>
-      </c>
-      <c r="E25" t="s">
-        <v>176</v>
-      </c>
-      <c r="F25" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1715,16 +1718,16 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" t="s">
         <v>177</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>178</v>
       </c>
-      <c r="E26" t="s">
-        <v>179</v>
-      </c>
       <c r="F26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1735,10 +1738,10 @@
         <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1749,16 +1752,16 @@
         <v>76</v>
       </c>
       <c r="C28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" t="s">
         <v>183</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" t="s">
         <v>184</v>
-      </c>
-      <c r="E28" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1769,16 +1772,16 @@
         <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" t="s">
         <v>187</v>
-      </c>
-      <c r="E29" t="s">
-        <v>197</v>
-      </c>
-      <c r="F29" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1789,10 +1792,10 @@
         <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1800,19 +1803,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="C31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E31" t="s">
-        <v>192</v>
-      </c>
       <c r="F31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1820,19 +1823,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" t="s">
         <v>193</v>
       </c>
-      <c r="D32" t="s">
-        <v>194</v>
-      </c>
       <c r="E32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1840,19 +1843,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D33" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" t="s">
         <v>200</v>
-      </c>
-      <c r="E33" t="s">
-        <v>204</v>
-      </c>
-      <c r="F33" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1860,13 +1863,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1874,19 +1877,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" t="s">
         <v>213</v>
       </c>
-      <c r="D35" t="s">
-        <v>206</v>
-      </c>
-      <c r="E35" t="s">
-        <v>214</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1894,19 +1897,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" t="s">
+        <v>206</v>
+      </c>
+      <c r="E36" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" t="s">
         <v>208</v>
-      </c>
-      <c r="D36" t="s">
-        <v>207</v>
-      </c>
-      <c r="E36" t="s">
-        <v>210</v>
-      </c>
-      <c r="F36" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1914,7 +1917,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1922,19 +1928,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E38" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" t="s">
         <v>215</v>
-      </c>
-      <c r="F38" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1942,19 +1948,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" t="s">
         <v>218</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E39" t="s">
-        <v>219</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1962,19 +1968,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" t="s">
         <v>220</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" t="s">
         <v>221</v>
-      </c>
-      <c r="E40" t="s">
-        <v>223</v>
-      </c>
-      <c r="F40" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1982,19 +1988,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41" t="s">
         <v>224</v>
       </c>
-      <c r="E41" t="s">
-        <v>225</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2002,13 +2008,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2016,19 +2022,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" t="s">
         <v>228</v>
       </c>
-      <c r="D43" t="s">
-        <v>227</v>
-      </c>
-      <c r="E43" t="s">
-        <v>229</v>
-      </c>
       <c r="F43" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2036,19 +2042,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" t="s">
         <v>231</v>
-      </c>
-      <c r="D44" t="s">
-        <v>230</v>
-      </c>
-      <c r="E44" t="s">
-        <v>233</v>
-      </c>
-      <c r="F44" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2056,19 +2062,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F45" t="s">
         <v>235</v>
-      </c>
-      <c r="D45" t="s">
-        <v>234</v>
-      </c>
-      <c r="E45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F45" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2076,13 +2082,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2090,19 +2096,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47" t="s">
         <v>240</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>241</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2110,19 +2116,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" t="s">
+        <v>254</v>
+      </c>
+      <c r="E48" t="s">
+        <v>257</v>
+      </c>
+      <c r="F48" t="s">
         <v>256</v>
-      </c>
-      <c r="D48" t="s">
-        <v>255</v>
-      </c>
-      <c r="E48" t="s">
-        <v>258</v>
-      </c>
-      <c r="F48" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2130,13 +2136,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2144,19 +2150,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2164,19 +2170,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" t="s">
+        <v>264</v>
+      </c>
+      <c r="E51" t="s">
+        <v>267</v>
+      </c>
+      <c r="F51" t="s">
         <v>266</v>
-      </c>
-      <c r="D51" t="s">
-        <v>265</v>
-      </c>
-      <c r="E51" t="s">
-        <v>268</v>
-      </c>
-      <c r="F51" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2207,7 +2213,9 @@
     <hyperlink ref="D8" r:id="rId24" xr:uid="{CC9E69E5-D89E-7348-94ED-77D234229B97}"/>
     <hyperlink ref="D19" r:id="rId25" location="!/vizhome/LWCUIDashboard/DashboardMain" display="https://public.tableau.com/profile/louisiana.workforce.commission.lmi - !/vizhome/LWCUIDashboard/DashboardMain" xr:uid="{8A7AC5E3-4C80-AC4B-BE68-2C22D0A65995}"/>
     <hyperlink ref="D22" r:id="rId26" location="!/vizhome/InitialClaimsbyCounty_15943981899640/GenderRaceEthnicitybyCounty" display="https://public.tableau.com/profile/maeconomicresearch - !/vizhome/InitialClaimsbyCounty_15943981899640/GenderRaceEthnicitybyCounty" xr:uid="{4E0D811B-0710-DF44-A29A-376C02BA8F74}"/>
+    <hyperlink ref="F37" r:id="rId27" xr:uid="{C448FDF3-45E9-B24C-9FC6-786BC4936749}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/tableau/state_info.xlsx
+++ b/tableau/state_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/tableau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205D9E43-7FDA-5047-AC79-415751B0FF63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820CD511-F0DC-9545-A911-17B672DC56A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{FAAD1E06-CFD9-6944-82C2-576030DD8CCD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="279">
   <si>
     <t>State</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Unemployment Insurance data for Hawaii is available on a weekly basis. Unemployment data is available at the state and county levels.</t>
   </si>
   <si>
-    <t>Unemployment Insurance data for Indiana is available on a weekly basis. The site hosting unemployment data for Indiana is currently inaccessible.</t>
-  </si>
-  <si>
     <t>Unemployment Insurance data for Idaho is available on a weekly basis. Unemployment data is available at the state, county, and city levels.</t>
   </si>
   <si>
@@ -395,12 +392,6 @@
     <t>Colorado Department of Labor and Employment, Labor Force, Employment, and Unemployment for Colorado</t>
   </si>
   <si>
-    <t>https://www1.ctdol.state.ct.us/lmi/ces/default.asp</t>
-  </si>
-  <si>
-    <t>Connecticut Department of Labor, Current Employment Statistics</t>
-  </si>
-  <si>
     <t>https://lmi.delawareworks.com/Content/Information/LAUS.php</t>
   </si>
   <si>
@@ -864,6 +855,21 @@
   </si>
   <si>
     <t>https://oesc.ok.gov/labor-market-local-area-reports</t>
+  </si>
+  <si>
+    <t>https://www1.ctdol.state.ct.us/lmi/laus/laustown.asp</t>
+  </si>
+  <si>
+    <t>Connecticut Department of Labor, Local Area Unemployment Statistics</t>
+  </si>
+  <si>
+    <t>Hoosiers by the Numbers - Local Area Unemployment Statistics, Not Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>http://www.hoosierdata.in.gov/dpage.asp?id=32</t>
+  </si>
+  <si>
+    <t>Unemployment Insurance data for Indiana is available on a weekly basis. Unemployment data is available at the state, county, and city levels.</t>
   </si>
 </sst>
 </file>
@@ -1234,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9EF56E-AA8C-6C43-9629-B47516959724}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1251,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>107</v>
-      </c>
-      <c r="F1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1274,16 +1280,16 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
         <v>101</v>
       </c>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>102</v>
-      </c>
-      <c r="F2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1291,13 +1297,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1308,16 +1314,16 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1325,13 +1331,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1342,16 +1348,16 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
         <v>114</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1362,16 +1368,16 @@
         <v>54</v>
       </c>
       <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
         <v>118</v>
       </c>
-      <c r="D7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" t="s">
-        <v>119</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1379,19 +1385,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>275</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1399,13 +1405,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1413,13 +1419,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1430,16 +1436,16 @@
         <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1450,16 +1456,16 @@
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
         <v>130</v>
       </c>
-      <c r="E12" t="s">
-        <v>133</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1467,19 +1473,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
         <v>134</v>
       </c>
-      <c r="E13" t="s">
-        <v>137</v>
-      </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1487,19 +1493,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" t="s">
         <v>138</v>
-      </c>
-      <c r="E14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1507,13 +1513,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>278</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
+      </c>
+      <c r="E15" t="s">
+        <v>276</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1521,19 +1533,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" t="s">
         <v>143</v>
       </c>
-      <c r="E16" t="s">
-        <v>146</v>
-      </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1541,19 +1553,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1561,19 +1573,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" t="s">
         <v>150</v>
       </c>
-      <c r="E18" t="s">
-        <v>153</v>
-      </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1581,19 +1593,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1601,13 +1613,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1615,19 +1627,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" t="s">
         <v>157</v>
       </c>
-      <c r="E21" t="s">
-        <v>160</v>
-      </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1635,19 +1647,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1655,19 +1667,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" t="s">
         <v>164</v>
       </c>
-      <c r="E23" t="s">
-        <v>167</v>
-      </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1675,19 +1687,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="E24" t="s">
-        <v>170</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1695,19 +1707,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" t="s">
         <v>172</v>
       </c>
-      <c r="D25" t="s">
-        <v>173</v>
-      </c>
-      <c r="E25" t="s">
-        <v>175</v>
-      </c>
       <c r="F25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1715,19 +1727,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" t="s">
         <v>177</v>
-      </c>
-      <c r="E26" t="s">
-        <v>178</v>
-      </c>
-      <c r="F26" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1735,13 +1747,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1749,19 +1761,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" t="s">
         <v>182</v>
       </c>
-      <c r="D28" t="s">
-        <v>183</v>
-      </c>
-      <c r="E28" t="s">
-        <v>185</v>
-      </c>
       <c r="F28" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1769,19 +1781,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1789,13 +1801,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1803,19 +1815,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1823,19 +1835,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D32" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F32" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1843,19 +1855,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E33" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F33" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1863,13 +1875,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1877,19 +1889,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1897,19 +1909,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D36" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" t="s">
         <v>206</v>
       </c>
-      <c r="E36" t="s">
-        <v>209</v>
-      </c>
       <c r="F36" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1917,10 +1929,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1928,19 +1940,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" t="s">
         <v>211</v>
       </c>
-      <c r="D38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E38" t="s">
-        <v>214</v>
-      </c>
       <c r="F38" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1948,19 +1960,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1968,19 +1980,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" t="s">
         <v>219</v>
       </c>
-      <c r="D40" t="s">
-        <v>220</v>
-      </c>
-      <c r="E40" t="s">
-        <v>222</v>
-      </c>
       <c r="F40" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1988,19 +2000,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D41" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2008,13 +2020,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2022,19 +2034,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D43" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E43" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2042,19 +2054,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D44" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" t="s">
         <v>229</v>
       </c>
-      <c r="E44" t="s">
-        <v>232</v>
-      </c>
       <c r="F44" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2062,19 +2074,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D45" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" t="s">
         <v>233</v>
       </c>
-      <c r="E45" t="s">
-        <v>236</v>
-      </c>
       <c r="F45" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2082,13 +2094,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F46" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2096,19 +2108,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" t="s">
+        <v>237</v>
+      </c>
+      <c r="E47" t="s">
+        <v>238</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="D47" t="s">
-        <v>240</v>
-      </c>
-      <c r="E47" t="s">
-        <v>241</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2116,19 +2128,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D48" t="s">
+        <v>251</v>
+      </c>
+      <c r="E48" t="s">
         <v>254</v>
       </c>
-      <c r="E48" t="s">
-        <v>257</v>
-      </c>
       <c r="F48" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2136,13 +2148,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E49" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F49" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2150,19 +2162,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D50" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E50" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F50" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2170,19 +2182,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D51" t="s">
+        <v>261</v>
+      </c>
+      <c r="E51" t="s">
         <v>264</v>
       </c>
-      <c r="E51" t="s">
-        <v>267</v>
-      </c>
       <c r="F51" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2214,6 +2226,7 @@
     <hyperlink ref="D19" r:id="rId25" location="!/vizhome/LWCUIDashboard/DashboardMain" display="https://public.tableau.com/profile/louisiana.workforce.commission.lmi - !/vizhome/LWCUIDashboard/DashboardMain" xr:uid="{8A7AC5E3-4C80-AC4B-BE68-2C22D0A65995}"/>
     <hyperlink ref="D22" r:id="rId26" location="!/vizhome/InitialClaimsbyCounty_15943981899640/GenderRaceEthnicitybyCounty" display="https://public.tableau.com/profile/maeconomicresearch - !/vizhome/InitialClaimsbyCounty_15943981899640/GenderRaceEthnicitybyCounty" xr:uid="{4E0D811B-0710-DF44-A29A-376C02BA8F74}"/>
     <hyperlink ref="F37" r:id="rId27" xr:uid="{C448FDF3-45E9-B24C-9FC6-786BC4936749}"/>
+    <hyperlink ref="F15" r:id="rId28" xr:uid="{3AA724EA-AD7F-984A-AE2E-9AC977ACA4F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tableau/state_info.xlsx
+++ b/tableau/state_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/tableau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820CD511-F0DC-9545-A911-17B672DC56A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546BADBA-0351-074B-AA7D-641636A8A3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{FAAD1E06-CFD9-6944-82C2-576030DD8CCD}"/>
   </bookViews>
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9EF56E-AA8C-6C43-9629-B47516959724}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
